--- a/measures for distribution/phase 1 - translation and stimuli selection/Moran, Hussey & Hughes - pilot/instructions.xlsx
+++ b/measures for distribution/phase 1 - translation and stimuli selection/Moran, Hussey & Hughes - pilot/instructions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="80" windowWidth="26820" windowHeight="17040"/>
+    <workbookView xWindow="14100" yWindow="75" windowWidth="26820" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -19,66 +19,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Imagine that you are a security guard watching for deviant activity at a business. Your job requires that you pay attention at all times, and respond quickly when something suspicious happens.  
-In our lab we study attention and rapid responding, and in this experiment you'll be asked to play the role of the security guard. 
-Specifically, you will be attending to a number of items presented on the computer screen, and you'll be responding as quickly as  possible when a target item appears by pressing the spacebar.  
-Press the spacebar to continue</t>
-  </si>
-  <si>
-    <t>The target item will appear at random several times throughout the experiment. The target item may appear as an image or as a name.  So be sure to pay attention at all times and focus on the screen, because you never know when the target item will appear.  
-A number of filler items that we've selected from our stimulus pool will also be shown randomly to make the task more challenging. These distractors are both pictures and words that were just randomly picked from our collection.  
-Sometimes two images will appear on the screen at the same time, and sometimes only one image will appear.  Be sure to hit the spacebar only when the target appears.  
-The target might appear anywhere on the screen as well, and it might also appear with other images. So whenever you see a target image or name anywhere on the screen, hit the spacebar.  
-Press the spacebar to continue.</t>
-  </si>
-  <si>
-    <t>The items will be displayed rapidly, so make sure that when you see a target, you hit the spacebar before it disappears.  
-Again, be sure to pay close attention throughout the experiment so that you can respond as quickly and accurately as possible.  
-There will be five separate surveillance tasks of about 4 minutes each.  
-Each task will have a different target, and all of the target items will be cartoon creatures. 
-Press the spacebar to continue.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>instructions_text</t>
   </si>
   <si>
-    <t xml:space="preserve">Next, we are going to ask you a number of questions. </t>
+    <t xml:space="preserve">Stel je voor dat je een beveiligingsagent bent die in een winkelcentrum de wacht houdt op zoe naar verdachte gedragingen. Jouw job verwacht dat je steeds aandachtig bent en snel reageert als iets verdacht gebeurt.  
+In ons labo bestuderen we aandacht en snelle responsen, en in dit experiment zal je gevraagd worden de rol van beveiligingsagent te spelen. 
+Specifiek zal je een aantal items op het scherm zien verschijnen,de bedoeling is dat je zo snel als mogelijk reageert wanneer een doelitem zichtbaar wordt door op de spatiebalk te drukken..  
+Druk op de spatiebalk om verder te gaan. 
+</t>
   </si>
   <si>
-    <t>For each of the following statements please indicate to what extent they apply to you.
-Please note that there are no right or wrong answers.</t>
+    <t xml:space="preserve">welkom bij het experiment!
+De studie zal ongeveer 30 minuten duren. 
+Als je vragen hebt, aarzel niet om deze aan de experimentleider te stellen. </t>
   </si>
   <si>
-    <t>For each of the following statements please indicate to what extent they are characteristic of you.
-Please note that there are no right or wrong answers.</t>
+    <t>Het doelitem zal op een aantal willekeurige momenten tijdens het experiment verschijnen.Het doelitem kan verschijnen als een naam of afbeelding.  Dus wees op elk moment aandacht en focus op het scherm, want je weet nooit wanneer het doelitem zal verschijnen
+ Er zullen ook een aantal willekeurige items getoond worden die we geselecteerd hebben uit onze stimuli, dit om de taak meer uitdagend te maken. Deze afleidingen zijn woorden en afbeeldingen die we willekeurig gekozen hebben uit onze collectie stimuli.  
+Soms zullen er twee afbeeldingen gelijktijdig op het scherm verschijnen,en soms zal er maar een afbeelding verschijnen.  Druk zeker op de spatiebalk als het doel item op het scherm verschijnt.   
+Het doel item kan op elke willekeurige plaats op het scherm verschijnen, en het kan ook samen verschijnen met andere afbeeldingen. Dus telkens je een doelitem of naam ziet verschijnen op het scherm druk op de spatiebalk..  
+Druk op de spatiebalk om verder te gaan</t>
   </si>
   <si>
-    <t>Next, you'll be presented with 30 pairs of target and filler creatures from the surveillance tasks, and we'd like you to indicate which one you like better. 
-You don't need a reason for liking one rather than the other, just give us your gut feelings.
-We are interested in knowing if the pleasantness or unpleasantness of these stimuli affects the ability to attend and rapidly respond to them, so we need you to indicate which you prefer.  
-Remember, you don't need a reason for liking one rather than the other, so just go with your gut. Please respond quickly.
-Press the spacebar to continue.</t>
+    <t xml:space="preserve">Nu zullen jou dertig paar doelitems en willekeurige items getoond worden die je reeds zag in de observatietaak. We willen dat jij aangeeft welke jou meer aanspreekt. 
+Je hoeft geen reden te geven waarom je de ene leuker vindt dan de andere, ga gewoon af op jouw eerste gevoel. 
+We zijn benieuwd om te weten of de aangenaamheid van een stimulus de reactietijd en aandachtsspanne voor deze stimulus beïnvloed, daarom willen we dat je aangeeft welke je verkiest.  .  
+Denk eraan , you Je hoeft geen reden te geven waarom je de ene leuker vindt dan de andere, ga gewoon af op jouw eerste gevoel. denk eraan om snel te antwoorden. 
+Druk op de spatiebalk om verder te gaan.
+</t>
   </si>
   <si>
-    <t>Put a left finger on the E key and a right finger in the I key.
-If you prefer the creature on the left, press E.
-If you prefer the creature on the right, press I.
-Press the spacebar to continue.</t>
+    <t xml:space="preserve">Leg nu jouw linkervinger op de E toets en jouw rechtervinger op de I toets .
+Als je het cartoonfiguurtje links verkiest,druk dan  E.
+Als je het cartoonfiguurtje rechts verkiest,druk dan I.
+Druk op de spatiebalk om verder te gaan..
+</t>
   </si>
   <si>
-    <t>The experiment is now complete.
-Press the spacebar to finish.</t>
+    <t xml:space="preserve">Als laatste willen we jou een aantal vragen stellen, dan is de studie ten einde.
+Druk op de spatiebalk om verder te gaan..
+</t>
   </si>
   <si>
-    <t>Lastly, we'll ask you a small number of questions, and then the study will end.
-Press the spacebar to continue.</t>
+    <t xml:space="preserve">Het experiment is nu compleet.
+Druk op de spatiebalk om af te sluiten.
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Welcome to the experiment!
-The study should take about 30 minutes. 
-If you have any questions please contact the experimenter. </t>
+    <t>Nu gaan we jou een aantal vragen stellen.</t>
+  </si>
+  <si>
+    <t>Voor elk van de volgende stellingen willen we dat je aangeeft in hoeverre het van toepassing is op jou. 
+Weet dat er geen juiste of foute antwoorden zijn.</t>
+  </si>
+  <si>
+    <t>de items zullen snel verschijnen, dus wanneer je een doelitem ziet, druk dan op de spatiebalk voor het verdwijnt. 
+Hou dus je aandacht tijdens het hele experiment en antwoord zo snel en accuraat als mogelijk. 
+Er zullen 5 afzonderlijke observatietaken zijn bestaande uit 4 minuten elkl.  
+Elke taak heeft een ander targetitem, elk target item zal een cartoonfiguurtje zijn. 
+Druk op de spatiebalk om verder te gaan</t>
   </si>
 </sst>
 </file>
@@ -622,24 +623,24 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -943,7 +944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -953,73 +954,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.33203125" customWidth="1"/>
+    <col min="1" max="1" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="219.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="297" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="60">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="220" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="297" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="230" customHeight="1">
+    <row r="5" spans="1:1" ht="230.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="45">
-      <c r="A7" s="4" t="s">
+    <row r="10" spans="1:1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="45">
-      <c r="A8" s="4" t="s">
+    <row r="11" spans="1:1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="195">
-      <c r="A9" s="4" t="s">
+    <row r="12" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="120">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="75" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="45">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
